--- a/数据文件/data.xlsx
+++ b/数据文件/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Documents/驰怀资料/数据库信息/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Documents/GitHub/erp/数据文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="208">
   <si>
     <t>订单编号</t>
   </si>
@@ -537,16 +537,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>商品编码</t>
-    <rPh sb="0" eb="1">
-      <t>shang'p</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bian'ma</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>商品ID</t>
     <rPh sb="0" eb="1">
       <t>shang'p</t>
@@ -774,9 +764,535 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>库存</t>
+    <t>商品英文名</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'wen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mign</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编码（货品编号）</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'ma</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo'pin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>批发价</t>
+    <rPh sb="0" eb="1">
+      <t>pi'fa'jia</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售价</t>
+    <rPh sb="0" eb="1">
+      <t>ling'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌ID</t>
+    <rPh sb="0" eb="1">
+      <t>ping'pai</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低售价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <rPh sb="0" eb="1">
+      <t>tu'pian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存信息</t>
     <rPh sb="0" eb="1">
       <t>ku'cun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库ID</t>
+    <rPh sb="0" eb="1">
+      <t>cang'ku</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存数量</t>
+    <rPh sb="0" eb="1">
+      <t>ku'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'l</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>残次品</t>
+    <rPh sb="0" eb="1">
+      <t>can'ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pin</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记</t>
+    <rPh sb="0" eb="1">
+      <t>biao'ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订购量</t>
+    <rPh sb="0" eb="1">
+      <t>ding'gou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待发量</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预采购量</t>
+    <rPh sb="0" eb="1">
+      <t>yu'bei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>cai'gou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购在途</t>
+    <rPh sb="0" eb="1">
+      <t>cai'gou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zai'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货在途</t>
+    <rPh sb="0" eb="1">
+      <t>tui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zai'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存总金额</t>
+    <rPh sb="0" eb="1">
+      <t>ku'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存总数量</t>
+    <rPh sb="0" eb="1">
+      <t>ku'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'l</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记时间</t>
+    <rPh sb="0" eb="1">
+      <t>deng'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库原因</t>
+    <rPh sb="0" eb="1">
+      <t>ru'ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'yin</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态</t>
+    <rPh sb="0" eb="1">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'tai</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
+    <rPh sb="0" eb="1">
+      <t>jing'ban'ren</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>货款合计</t>
+    <rPh sb="0" eb="1">
+      <t>huo'kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费用</t>
+    <rPh sb="0" eb="1">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei'yong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>货品总数</t>
+    <rPh sb="0" eb="1">
+      <t>huo'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'shu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>货品总类</t>
+    <rPh sb="0" eb="1">
+      <t>huo'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单</t>
+    <rPh sb="0" eb="1">
+      <t>chu'ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单号</t>
+    <rPh sb="0" eb="1">
+      <t>chu'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan'hao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库时间区域</t>
+    <rPh sb="0" eb="1">
+      <t>chu'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shj'iian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qu'yu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记时间</t>
+    <rPh sb="0" eb="1">
+      <t>deng'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库原因</t>
+    <rPh sb="0" eb="1">
+      <t>chu'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'yin</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
+    <rPh sb="0" eb="1">
+      <t>jign'ban'ren</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计金额</t>
+    <rPh sb="0" eb="1">
+      <t>he'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费用</t>
+    <rPh sb="0" eb="1">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei'yogn</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单</t>
+    <rPh sb="0" eb="1">
+      <t>xioa'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'dan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <rPh sb="0" eb="1">
+      <t>dign'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单</t>
+    <rPh sb="0" eb="1">
+      <t>cia'gou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'dan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <rPh sb="0" eb="1">
+      <t>dign'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'h</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记时间</t>
+    <rPh sb="0" eb="1">
+      <t>degn'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>货品编码（商品编码）</t>
+    <rPh sb="0" eb="1">
+      <t>huo'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'ma</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bain'ma</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠（折扣前加*）</t>
+    <rPh sb="0" eb="1">
+      <t>you'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhe'kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zh</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款状态</t>
+    <rPh sb="0" eb="1">
+      <t>fu'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'tai</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票方式</t>
+    <rPh sb="0" eb="1">
+      <t>kai'p</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>piao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'l</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司信息</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库信息</t>
+    <rPh sb="0" eb="1">
+      <t>cang'ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库名称</t>
+    <rPh sb="0" eb="1">
+      <t>cang'ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mign'c</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库地址</t>
+    <rPh sb="0" eb="1">
+      <t>cag'ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单号</t>
+    <rPh sb="0" eb="1">
+      <t>ru'ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan'hao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计到货</t>
+    <rPh sb="0" eb="1">
+      <t>yu'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>doa'huo</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1841,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1853,14 +2369,19 @@
     <col min="2" max="2" width="23.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="21.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>114</v>
       </c>
@@ -1874,38 +2395,65 @@
         <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>122</v>
@@ -1914,16 +2462,28 @@
         <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1934,13 +2494,28 @@
         <v>126</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1948,139 +2523,280 @@
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>155</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>135</v>
+        <v>156</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>116</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
     </row>
   </sheetData>
